--- a/webscrapping school/shipito All/shipto.xlsx
+++ b/webscrapping school/shipito All/shipto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1223"/>
+  <dimension ref="A1:M1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Recieving Country</t>
+          <t>Receiving Country</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Recieving City</t>
+          <t>Receiving City</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Recieving Zipcode</t>
+          <t>Receiving Zipcode</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -87280,792 +87280,6 @@
         </is>
       </c>
     </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>California USA</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="C1213" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="D1213" t="inlineStr">
-        <is>
-          <t>852</t>
-        </is>
-      </c>
-      <c r="E1213" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1213" t="inlineStr">
-        <is>
-          <t>DHL Express</t>
-        </is>
-      </c>
-      <c r="G1213" t="inlineStr">
-        <is>
-          <t>$52.10</t>
-        </is>
-      </c>
-      <c r="H1213" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="I1213" t="inlineStr">
-        <is>
-          <t>2-4 business days</t>
-        </is>
-      </c>
-      <c r="J1213" t="inlineStr">
-        <is>
-          <t>Included</t>
-        </is>
-      </c>
-      <c r="K1213" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L1213" t="inlineStr">
-        <is>
-          <t>Actual Weight: 1.00 lb
-Dimensional Weight: 0.00 lb
-Girth + Length: 0
-Charged Weight: 1.00 lb</t>
-        </is>
-      </c>
-      <c r="M1213" t="inlineStr">
-        <is>
-          <t>Hong Kong Limits
-Weight Limit: 1000 lb
-Value Limit: $20,000 USD
-Max Length: 118 in</t>
-        </is>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>California USA</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="C1214" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="D1214" t="inlineStr">
-        <is>
-          <t>852</t>
-        </is>
-      </c>
-      <c r="E1214" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1214" t="inlineStr">
-        <is>
-          <t>Shipito World Direct</t>
-        </is>
-      </c>
-      <c r="G1214" t="inlineStr">
-        <is>
-          <t>$18.52</t>
-        </is>
-      </c>
-      <c r="H1214" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="I1214" t="inlineStr">
-        <is>
-          <t>5-10 business days</t>
-        </is>
-      </c>
-      <c r="J1214" t="inlineStr">
-        <is>
-          <t>$3.00 USD (Optional)</t>
-        </is>
-      </c>
-      <c r="K1214" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L1214" t="inlineStr">
-        <is>
-          <t>Actual Weight: 1.00 lb
-Dimensional Weight: 0.00 lb
-Girth + Length: 0
-Charged Weight: 1.00 lb</t>
-        </is>
-      </c>
-      <c r="M1214" t="inlineStr">
-        <is>
-          <t>Hong Kong Limits
-Weight Limit: 66 lb
-Value Limit: $1,500 USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>California USA</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="C1215" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="D1215" t="inlineStr">
-        <is>
-          <t>852</t>
-        </is>
-      </c>
-      <c r="E1215" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1215" t="inlineStr">
-        <is>
-          <t>Airmail Economy</t>
-        </is>
-      </c>
-      <c r="G1215" t="inlineStr">
-        <is>
-          <t>$14.93</t>
-        </is>
-      </c>
-      <c r="H1215" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="I1215" t="inlineStr">
-        <is>
-          <t>20-45 business days (Brazil may take up to 120 business days)</t>
-        </is>
-      </c>
-      <c r="J1215" t="inlineStr">
-        <is>
-          <t>not available</t>
-        </is>
-      </c>
-      <c r="K1215" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L1215" t="inlineStr">
-        <is>
-          <t>Actual Weight: 1.00 lb
-Dimensional Weight: N/A
-Girth + Length: 0
-Charged Weight: 1.00 lb</t>
-        </is>
-      </c>
-      <c r="M1215" t="inlineStr">
-        <is>
-          <t>Hong Kong Limits
-Weight Limit: 4 lb
-Value Limit: $400 USD
-Max Length: 24 in
-Max Girth + Length: 60 in</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>California USA</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="C1216" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="D1216" t="inlineStr">
-        <is>
-          <t>852</t>
-        </is>
-      </c>
-      <c r="E1216" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1216" t="inlineStr">
-        <is>
-          <t>USPS First Class International Parcel</t>
-        </is>
-      </c>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>$76.13</t>
-        </is>
-      </c>
-      <c r="H1216" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="I1216" t="inlineStr">
-        <is>
-          <t>varies</t>
-        </is>
-      </c>
-      <c r="J1216" t="inlineStr">
-        <is>
-          <t>not available</t>
-        </is>
-      </c>
-      <c r="K1216" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L1216" t="inlineStr">
-        <is>
-          <t>Actual Weight: 1.00 lb
-Dimensional Weight: N/A
-Girth + Length: 0
-Charged Weight: 1.00 lb</t>
-        </is>
-      </c>
-      <c r="M1216" t="inlineStr">
-        <is>
-          <t>Hong Kong Limits
-Weight Limit: 4 lb
-Value Limit: $150 USD
-Max Length: 24 in
-Max Girth + Length: 60 in</t>
-        </is>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>California USA</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="C1217" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="D1217" t="inlineStr">
-        <is>
-          <t>852</t>
-        </is>
-      </c>
-      <c r="E1217" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1217" t="inlineStr">
-        <is>
-          <t>Aramex</t>
-        </is>
-      </c>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>$33.91</t>
-        </is>
-      </c>
-      <c r="H1217" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="I1217" t="inlineStr">
-        <is>
-          <t>6-10 business days</t>
-        </is>
-      </c>
-      <c r="J1217" t="inlineStr">
-        <is>
-          <t>$2.00 USD (Optional)</t>
-        </is>
-      </c>
-      <c r="K1217" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L1217" t="inlineStr">
-        <is>
-          <t>Actual Weight: 1.00 lb
-Dimensional Weight: 0.00 lb
-Girth + Length: 0
-Charged Weight: 1.00 lb</t>
-        </is>
-      </c>
-      <c r="M1217" t="inlineStr">
-        <is>
-          <t>Hong Kong Limits
-Weight Limit: 66 lb
-Value Limit: $2,000 USD
-Max Length: 108 in</t>
-        </is>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>California USA</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="C1218" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="D1218" t="inlineStr">
-        <is>
-          <t>852</t>
-        </is>
-      </c>
-      <c r="E1218" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1218" t="inlineStr">
-        <is>
-          <t>USPS® Express Mail</t>
-        </is>
-      </c>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>$70.96</t>
-        </is>
-      </c>
-      <c r="H1218" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="I1218" t="inlineStr">
-        <is>
-          <t>6-10 business days</t>
-        </is>
-      </c>
-      <c r="J1218" t="inlineStr">
-        <is>
-          <t>$0.85 USD (Optional)</t>
-        </is>
-      </c>
-      <c r="K1218" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L1218" t="inlineStr">
-        <is>
-          <t>Actual Weight: 1.00 lb
-Dimensional Weight: N/A
-Girth + Length: 0
-Charged Weight: 1.00 lb</t>
-        </is>
-      </c>
-      <c r="M1218" t="inlineStr">
-        <is>
-          <t>Hong Kong Limits
-Weight Limit: 70 lb
-Value Limit: $2,500 USD
-Max Length: 79 in
-Max Girth + Length: 108 in</t>
-        </is>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>California USA</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="C1219" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="D1219" t="inlineStr">
-        <is>
-          <t>852</t>
-        </is>
-      </c>
-      <c r="E1219" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1219" t="inlineStr">
-        <is>
-          <t>USPS® Priority Mail</t>
-        </is>
-      </c>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>$58.80</t>
-        </is>
-      </c>
-      <c r="H1219" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="I1219" t="inlineStr">
-        <is>
-          <t>10-15 business days</t>
-        </is>
-      </c>
-      <c r="J1219" t="inlineStr">
-        <is>
-          <t>$3.00 USD (Optional)</t>
-        </is>
-      </c>
-      <c r="K1219" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L1219" t="inlineStr">
-        <is>
-          <t>Actual Weight: 1.00 lb
-Dimensional Weight: N/A
-Girth + Length: 0
-Charged Weight: 1.00 lb</t>
-        </is>
-      </c>
-      <c r="M1219" t="inlineStr">
-        <is>
-          <t>Hong Kong Limits
-Weight Limit: 66 lb
-Value Limit: $2,500 USD
-Max Length: 79 in
-Max Girth + Length: 108 in</t>
-        </is>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>California USA</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="C1220" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="D1220" t="inlineStr">
-        <is>
-          <t>852</t>
-        </is>
-      </c>
-      <c r="E1220" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1220" t="inlineStr">
-        <is>
-          <t>Shipito Priority Parcel</t>
-        </is>
-      </c>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>$27.43</t>
-        </is>
-      </c>
-      <c r="H1220" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="I1220" t="inlineStr">
-        <is>
-          <t>5-12 business days</t>
-        </is>
-      </c>
-      <c r="J1220" t="inlineStr">
-        <is>
-          <t>$3.00 USD (Optional)</t>
-        </is>
-      </c>
-      <c r="K1220" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L1220" t="inlineStr">
-        <is>
-          <t>Actual Weight: 1.00 lb
-Dimensional Weight: 0.00 lb
-Girth + Length: 0
-Charged Weight: 1.00 lb</t>
-        </is>
-      </c>
-      <c r="M1220" t="inlineStr">
-        <is>
-          <t>Hong Kong Limits
-Weight Limit: 66 lb
-Value Limit: $2,500 USD
-Max Length: 42 in
-Max Girth + Length: 79 in</t>
-        </is>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>California USA</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="C1221" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="D1221" t="inlineStr">
-        <is>
-          <t>852</t>
-        </is>
-      </c>
-      <c r="E1221" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1221" t="inlineStr">
-        <is>
-          <t>USPS ePacket®</t>
-        </is>
-      </c>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>$22.69</t>
-        </is>
-      </c>
-      <c r="H1221" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="I1221" t="inlineStr">
-        <is>
-          <t>12-18 business days</t>
-        </is>
-      </c>
-      <c r="J1221" t="inlineStr">
-        <is>
-          <t>$3.00 USD (Optional)</t>
-        </is>
-      </c>
-      <c r="K1221" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L1221" t="inlineStr">
-        <is>
-          <t>Actual Weight: 1.00 lb
-Dimensional Weight: N/A
-Girth + Length: 0
-Charged Weight: 1.00 lb</t>
-        </is>
-      </c>
-      <c r="M1221" t="inlineStr">
-        <is>
-          <t>Hong Kong Limits
-Weight Limit: 4 lb
-Value Limit: $400 USD
-Max Length: 24 in
-Max Girth + Length: 36 in</t>
-        </is>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>California USA</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="C1222" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="D1222" t="inlineStr">
-        <is>
-          <t>852</t>
-        </is>
-      </c>
-      <c r="E1222" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1222" t="inlineStr">
-        <is>
-          <t>UPS Worldwide Expedited</t>
-        </is>
-      </c>
-      <c r="G1222" t="inlineStr">
-        <is>
-          <t>$75.35</t>
-        </is>
-      </c>
-      <c r="H1222" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="I1222" t="inlineStr">
-        <is>
-          <t>3-6 business days</t>
-        </is>
-      </c>
-      <c r="J1222" t="inlineStr">
-        <is>
-          <t>$3.00 USD (Optional)</t>
-        </is>
-      </c>
-      <c r="K1222" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L1222" t="inlineStr">
-        <is>
-          <t>Actual Weight: 1.00 lb
-Dimensional Weight: 0.00 lb
-Girth + Length: 0
-Charged Weight: 1.00 lb</t>
-        </is>
-      </c>
-      <c r="M1222" t="inlineStr">
-        <is>
-          <t>Hong Kong Limits
-Weight Limit: 150 lb
-Max Length: 108 in
-Max Girth + Length: 165 in</t>
-        </is>
-      </c>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>California USA</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="C1223" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="D1223" t="inlineStr">
-        <is>
-          <t>852</t>
-        </is>
-      </c>
-      <c r="E1223" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1223" t="inlineStr">
-        <is>
-          <t>UPS Worldwide Saver</t>
-        </is>
-      </c>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>$82.92</t>
-        </is>
-      </c>
-      <c r="H1223" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="I1223" t="inlineStr">
-        <is>
-          <t>2-4 business days</t>
-        </is>
-      </c>
-      <c r="J1223" t="inlineStr">
-        <is>
-          <t>$3.00 USD (Optional)</t>
-        </is>
-      </c>
-      <c r="K1223" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L1223" t="inlineStr">
-        <is>
-          <t>Actual Weight: 1.00 lb
-Dimensional Weight: 0.00 lb
-Girth + Length: 0
-Charged Weight: 1.00 lb</t>
-        </is>
-      </c>
-      <c r="M1223" t="inlineStr">
-        <is>
-          <t>Hong Kong Limits
-Weight Limit: 150 lb
-Max Length: 108 in
-Max Girth + Length: 165 in</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
